--- a/Proyectos/Viaticos/Linea base/01. Requerimientos/Viaticos-SolicitudCambio.xlsx
+++ b/Proyectos/Viaticos/Linea base/01. Requerimientos/Viaticos-SolicitudCambio.xlsx
@@ -239,7 +239,10 @@
     <t>Cerrado</t>
   </si>
   <si>
-    <t>Rene Pulido</t>
+    <t>René Pulido</t>
+  </si>
+  <si>
+    <t>Agregar confirmación de usuarios y opción a recuperar password</t>
   </si>
   <si>
     <t>Aumentar seguridad en sistema</t>
@@ -248,31 +251,31 @@
     <t>Media</t>
   </si>
   <si>
-    <t>Agregar confirmación de usuarios y opción a recuperar password</t>
-  </si>
-  <si>
-    <t>Agregar confirmación de usuario, se deberá enviar correo al usuario cuando este haya sido creado</t>
-  </si>
-  <si>
-    <t>Estimación, requerimientos, código fuente</t>
+    <t>Agregar confirmación de usuario, se deberá enviar correo al usuario cuando este ha sido creado</t>
   </si>
   <si>
     <t>Agregar método de recuperación de password para usuario</t>
   </si>
   <si>
+    <t>Estimación, Requerimientos, Código fuente</t>
+  </si>
+  <si>
+    <t>No genera impacto en fecha de entrega</t>
+  </si>
+  <si>
+    <t>Aprobado</t>
+  </si>
+  <si>
     <t>Jovanny Zepeda</t>
-  </si>
-  <si>
-    <t>Aprobado</t>
-  </si>
-  <si>
-    <t>No genera impacto en fecha de entrega</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -507,7 +510,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -584,6 +587,24 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -595,15 +616,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -628,7 +640,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>65617</xdr:rowOff>
     </xdr:from>
@@ -648,7 +660,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7381875" y="65617"/>
+          <a:off x="7124700" y="65617"/>
           <a:ext cx="2487274" cy="824889"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1181,7 +1193,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1192,18 +1204,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61" style="2" customWidth="1"/>
-    <col min="4" max="6" width="11.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" style="2" customWidth="1"/>
+    <col min="4" max="6" width="12.7109375" style="2" customWidth="1"/>
     <col min="7" max="254" width="11.42578125" style="2"/>
     <col min="255" max="255" width="2.7109375" style="2" customWidth="1"/>
     <col min="256" max="256" width="28.5703125" style="2" customWidth="1"/>
@@ -1465,7 +1477,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="18"/>
-      <c r="F3" s="26"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" ht="16.5">
       <c r="A4" s="2"/>
@@ -1476,7 +1488,7 @@
         <v>37</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="26"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" ht="16.5">
       <c r="A5" s="2"/>
@@ -1486,20 +1498,20 @@
       <c r="C5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1">
       <c r="A6" s="2"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
-      <c r="F6" s="26"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:6" ht="18">
       <c r="B7" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="F7" s="26"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:6" ht="16.5">
       <c r="B8" s="9" t="s">
@@ -1508,7 +1520,7 @@
       <c r="C8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:6" ht="16.5">
       <c r="B9" s="9" t="s">
@@ -1523,7 +1535,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5">
@@ -1531,7 +1543,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5">
@@ -1539,7 +1551,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1547,13 +1559,13 @@
       <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="20.25" customHeight="1">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:6" ht="31.5">
       <c r="B15" s="20" t="s">
@@ -1572,46 +1584,46 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="49.5">
+    <row r="16" spans="1:6" ht="37.5" customHeight="1">
       <c r="B16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="31">
+      <c r="C16" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="27">
         <v>42466</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="27">
         <v>42469</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="33">
       <c r="B17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="31">
+      <c r="D17" s="27">
         <v>42466</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="27">
         <v>42469</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5">
       <c r="B18" s="9"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="16.5">
       <c r="B19" s="9"/>
@@ -1620,116 +1632,109 @@
       <c r="E19" s="15"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" ht="16.5">
-      <c r="B20" s="9"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="8"/>
+    <row r="20" spans="1:6" ht="20.25" customHeight="1">
+      <c r="B20" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="23">
+        <f>SUM(F16:F19)</f>
+        <v>10</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="20.25" customHeight="1">
-      <c r="B21" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="23">
-        <f>SUM(F16:F20)</f>
-        <v>10</v>
-      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="20.25" customHeight="1">
-      <c r="B22" s="11"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="B22" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="21"/>
     </row>
     <row r="23" spans="1:6" ht="20.25" customHeight="1">
-      <c r="B23" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="21"/>
+      <c r="B23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="29">
+        <v>980</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="20.25" customHeight="1">
       <c r="B24" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="15">
-        <v>980</v>
+        <v>24</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.25" customHeight="1">
       <c r="B25" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>46</v>
+        <v>0</v>
+      </c>
+      <c r="C25" s="31">
+        <v>42469</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.25" customHeight="1">
       <c r="B26" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="16">
+        <v>25</v>
+      </c>
+      <c r="C26" s="31">
         <v>42469</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.25" customHeight="1">
       <c r="B27" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="16">
-        <v>42469</v>
+        <v>31</v>
+      </c>
+      <c r="C27" s="31">
+        <v>42465</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.25" customHeight="1">
       <c r="B28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="16">
+        <v>26</v>
+      </c>
+      <c r="C28" s="31">
         <v>42465</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.25" customHeight="1">
-      <c r="B29" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="16">
-        <v>42465</v>
-      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:6" ht="20.25" customHeight="1">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="21"/>
     </row>
     <row r="31" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="21"/>
+      <c r="B31" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="20.25" customHeight="1">
       <c r="B32" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>44</v>
+        <v>29</v>
+      </c>
+      <c r="C32" s="31">
+        <v>42469</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="20.25" customHeight="1">
       <c r="B33" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="16">
-        <v>42469</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B34" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C33" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1739,7 +1744,7 @@
     <mergeCell ref="B14:F14"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33">
       <formula1>"Aprobado,Rechazado"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C13">
@@ -1761,7 +1766,7 @@
           <x14:formula1>
             <xm:f>Parametros!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C26</xm:sqref>
+          <xm:sqref>C25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
